--- a/genetic data/GWAS_datasets_to_consider.xlsx
+++ b/genetic data/GWAS_datasets_to_consider.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,198 +19,198 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="90">
-  <si>
-    <t xml:space="preserve">GWAS_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consortium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number_of_SNPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub_category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bbj-a-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulse Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continuous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Asian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No European data available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bbj-a-78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smoking behaviors : Smoking initiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukb-b-13806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-cancer illness code, self-reported: type 2 diabetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Download needed: https://gwas.mrcieu.ac.uk/datasets/ukb-b-13806/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ieu-a-1283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcohol consumption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UK Biobank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risk factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukb-d-20405_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ever had known person concerned about, or recommend reduction of, alcohol consumption: No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Download needed: https://gwas.mrcieu.ac.uk/datasets/ukb-d-20405_0/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukb-d-20405_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ever had known person concerned about, or recommend reduction of, alcohol consumption: Yes, but not in the last year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Download needed: https://gwas.mrcieu.ac.uk/datasets/ukb-d-20405_1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukb-d-20405_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ever had known person concerned about, or recommend reduction of, alcohol consumption: Yes, during the last year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Download needed: https://gwas.mrcieu.ac.uk/datasets/ukb-d-20405_2/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">met-d-Total_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total cholesterol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Download needed: https://gwas.mrcieu.ac.uk/datasets/met-d-Total_C/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ieu-b-109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDL cholesterol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ieu-b-110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDL cholesterol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ieu-b-111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">triglycerides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ieu-b-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cigarettes per Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GWAS and Sequencing Consortium of Alcohol and Nicotine use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ieu-b-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">systolic blood pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Consortium of Blood Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ieu-b-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diastolic blood pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukb-a-257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hearing difficulty/problems: Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neale Lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA (Possibly binary)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukb-b-12064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-cancer illness code, self-reported: depression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRC-IEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukb-b-17627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-oily fish intake</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="103">
+  <si>
+    <t>GWAS_ID</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Consortium</t>
+  </si>
+  <si>
+    <t>Sample_Size</t>
+  </si>
+  <si>
+    <t>Number_of_SNPs</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>Sub_category</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>bbj-a-46</t>
+  </si>
+  <si>
+    <t>Pulse Pressure</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>East Asian</t>
+  </si>
+  <si>
+    <t>No European data available</t>
+  </si>
+  <si>
+    <t>bbj-a-78</t>
+  </si>
+  <si>
+    <t>Smoking behaviors : Smoking initiation</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>ukb-b-13806</t>
+  </si>
+  <si>
+    <t>Non-cancer illness code, self-reported: type 2 diabetes</t>
+  </si>
+  <si>
+    <t>European</t>
+  </si>
+  <si>
+    <t>Download needed: https://gwas.mrcieu.ac.uk/datasets/ukb-b-13806/</t>
+  </si>
+  <si>
+    <t>ieu-a-1283</t>
+  </si>
+  <si>
+    <t>Alcohol consumption</t>
+  </si>
+  <si>
+    <t>UK Biobank</t>
+  </si>
+  <si>
+    <t>Risk factor</t>
+  </si>
+  <si>
+    <t>ukb-d-20405_0</t>
+  </si>
+  <si>
+    <t>Ever had known person concerned about, or recommend reduction of, alcohol consumption: No</t>
+  </si>
+  <si>
+    <t>Download needed: https://gwas.mrcieu.ac.uk/datasets/ukb-d-20405_0/</t>
+  </si>
+  <si>
+    <t>ukb-d-20405_1</t>
+  </si>
+  <si>
+    <t>Ever had known person concerned about, or recommend reduction of, alcohol consumption: Yes, but not in the last year</t>
+  </si>
+  <si>
+    <t>Download needed: https://gwas.mrcieu.ac.uk/datasets/ukb-d-20405_1/</t>
+  </si>
+  <si>
+    <t>ukb-d-20405_2</t>
+  </si>
+  <si>
+    <t>Ever had known person concerned about, or recommend reduction of, alcohol consumption: Yes, during the last year</t>
+  </si>
+  <si>
+    <t>Download needed: https://gwas.mrcieu.ac.uk/datasets/ukb-d-20405_2/</t>
+  </si>
+  <si>
+    <t>met-d-Total_C</t>
+  </si>
+  <si>
+    <t>Total cholesterol</t>
+  </si>
+  <si>
+    <t>Download needed: https://gwas.mrcieu.ac.uk/datasets/met-d-Total_C/</t>
+  </si>
+  <si>
+    <t>ieu-b-109</t>
+  </si>
+  <si>
+    <t>HDL cholesterol</t>
+  </si>
+  <si>
+    <t>ieu-b-110</t>
+  </si>
+  <si>
+    <t>LDL cholesterol</t>
+  </si>
+  <si>
+    <t>ieu-b-111</t>
+  </si>
+  <si>
+    <t>triglycerides</t>
+  </si>
+  <si>
+    <t>ieu-b-25</t>
+  </si>
+  <si>
+    <t>Cigarettes per Day</t>
+  </si>
+  <si>
+    <t>GWAS and Sequencing Consortium of Alcohol and Nicotine use</t>
+  </si>
+  <si>
+    <t>ieu-b-38</t>
+  </si>
+  <si>
+    <t>systolic blood pressure</t>
+  </si>
+  <si>
+    <t>International Consortium of Blood Pressure</t>
+  </si>
+  <si>
+    <t>Blood pressure</t>
+  </si>
+  <si>
+    <t>ieu-b-39</t>
+  </si>
+  <si>
+    <t>diastolic blood pressure</t>
+  </si>
+  <si>
+    <t>ukb-a-257</t>
+  </si>
+  <si>
+    <t>Hearing difficulty/problems: Yes</t>
+  </si>
+  <si>
+    <t>Neale Lab</t>
+  </si>
+  <si>
+    <t>NA (Possibly binary)</t>
+  </si>
+  <si>
+    <t>ukb-b-12064</t>
+  </si>
+  <si>
+    <t>Non-cancer illness code, self-reported: depression</t>
+  </si>
+  <si>
+    <t>MRC-IEU</t>
+  </si>
+  <si>
+    <t>ukb-b-17627</t>
+  </si>
+  <si>
+    <t>Non-oily fish intake</t>
   </si>
   <si>
     <r>
@@ -232,96 +231,140 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(assumed continuous)</t>
+      <t>(assumed continuous)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ukb-b-18275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hearing difficulty/problems with background noise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukb-b-19953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Body mass index (BMI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukb-b-2209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oily fish intake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukb-b-3957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleeplessness / insomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukb-b-4424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep duration</t>
+    <t>ukb-b-18275</t>
+  </si>
+  <si>
+    <t>Hearing difficulty/problems with background noise</t>
+  </si>
+  <si>
+    <t>ukb-b-19953</t>
+  </si>
+  <si>
+    <t>Body mass index (BMI)</t>
+  </si>
+  <si>
+    <t>ukb-b-2209</t>
+  </si>
+  <si>
+    <t>Oily fish intake</t>
+  </si>
+  <si>
+    <t>ukb-b-3957</t>
+  </si>
+  <si>
+    <t>Sleeplessness / insomnia</t>
+  </si>
+  <si>
+    <t>ukb-b-4424</t>
+  </si>
+  <si>
+    <t>Sleep duration</t>
   </si>
   <si>
     <t xml:space="preserve">NA </t>
   </si>
   <si>
-    <t xml:space="preserve">ukb-b-6134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age completed full time education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukb-b-6324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processed meat intake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukb-b-7663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Types of physical activity in last 4 weeks: Strenuous sports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukb-b-770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other meat intake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukb-b-8476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loneliness, isolation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukb-b-323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illnesses of father: Alzheimer's disease/dementia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukb-b-14699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illnesses of mother: Alzheimer's disease/dementia</t>
+    <t>ukb-b-6134</t>
+  </si>
+  <si>
+    <t>Age completed full time education</t>
+  </si>
+  <si>
+    <t>ukb-b-6324</t>
+  </si>
+  <si>
+    <t>Processed meat intake</t>
+  </si>
+  <si>
+    <t>ukb-b-7663</t>
+  </si>
+  <si>
+    <t>Types of physical activity in last 4 weeks: Strenuous sports</t>
+  </si>
+  <si>
+    <t>ukb-b-770</t>
+  </si>
+  <si>
+    <t>Other meat intake</t>
+  </si>
+  <si>
+    <t>ukb-b-8476</t>
+  </si>
+  <si>
+    <t>Loneliness, isolation</t>
+  </si>
+  <si>
+    <t>ukb-b-323</t>
+  </si>
+  <si>
+    <t>Illnesses of father: Alzheimer's disease/dementia</t>
+  </si>
+  <si>
+    <t>ukb-b-14699</t>
+  </si>
+  <si>
+    <t>Illnesses of mother: Alzheimer's disease/dementia</t>
+  </si>
+  <si>
+    <t>ukb-b-14180</t>
+  </si>
+  <si>
+    <t>ukb-b-17243</t>
+  </si>
+  <si>
+    <t>Mood swings</t>
+  </si>
+  <si>
+    <t>Non-cancer illness code, self-reported: anxiety/panic attacks</t>
+  </si>
+  <si>
+    <t>ukb-b-6358</t>
+  </si>
+  <si>
+    <t>Non-cancer illness code, self-reported: stroke</t>
+  </si>
+  <si>
+    <t>ukb-b-17006</t>
+  </si>
+  <si>
+    <t>Non-cancer illness code, self-reported: head injury</t>
+  </si>
+  <si>
+    <t>ukb-b-5779</t>
+  </si>
+  <si>
+    <t>Alcohol intake frequency</t>
+  </si>
+  <si>
+    <r>
+      <t>Categorical Ordered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (assumed continuous)</t>
+    </r>
+  </si>
+  <si>
+    <t>ukb-b-15541</t>
+  </si>
+  <si>
+    <t>Diagnoses - secondary ICD10: E66.9 Obesity, unspecified</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -330,22 +373,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -353,7 +381,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -361,7 +389,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="Segoe UI"/>
@@ -404,7 +432,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -424,8 +452,47 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="-apple-system"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Quattrocento Sans"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF212529"/>
+      <name val="-apple-system"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,16 +505,22 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="8">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFDEE2E6"/>
       </left>
@@ -462,7 +535,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -471,7 +544,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFDEE2E6"/>
       </left>
@@ -484,206 +557,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="52">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -742,39 +798,333 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF212529"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.89"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="53.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="19.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -809,11 +1159,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="true" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="19.2">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="7">
         <v>2019</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -822,10 +1172,10 @@
       <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="9">
         <v>136249</v>
       </c>
-      <c r="F2" s="10" t="n">
+      <c r="F2" s="10">
         <v>6108953</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -834,18 +1184,18 @@
       <c r="H2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10" t="n">
+      <c r="I2" s="10">
         <v>29403010</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="true" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="19.2">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>2019</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -854,10 +1204,10 @@
       <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="10">
         <v>165436</v>
       </c>
-      <c r="F3" s="10" t="n">
+      <c r="F3" s="10">
         <v>5961480</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -866,18 +1216,18 @@
       <c r="H3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="10" t="n">
+      <c r="I3" s="10">
         <v>31089300</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="true" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="19.2">
       <c r="A4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="13">
         <v>2018</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -886,10 +1236,10 @@
       <c r="D4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="14">
         <v>462933</v>
       </c>
-      <c r="F4" s="15" t="n">
+      <c r="F4" s="15">
         <v>9851867</v>
       </c>
       <c r="G4" s="13" t="s">
@@ -905,11 +1255,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="true" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="19.2">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="7">
         <v>2017</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -918,10 +1268,10 @@
       <c r="D5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="18" t="n">
+      <c r="E5" s="18">
         <v>112117</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="10">
         <v>12935395</v>
       </c>
       <c r="G5" s="19" t="s">
@@ -930,15 +1280,15 @@
       <c r="H5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="10">
         <v>28937693</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="true" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="19.2">
       <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="13">
         <v>2018</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -947,10 +1297,10 @@
       <c r="D6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="14">
         <v>117880</v>
       </c>
-      <c r="F6" s="22" t="n">
+      <c r="F6" s="22">
         <v>13571660</v>
       </c>
       <c r="G6" s="13" t="s">
@@ -969,11 +1319,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="true" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="19.2">
       <c r="A7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="13">
         <v>2018</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -982,10 +1332,10 @@
       <c r="D7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="23" t="n">
+      <c r="E7" s="23">
         <v>117880</v>
       </c>
-      <c r="F7" s="15" t="n">
+      <c r="F7" s="15">
         <v>12203571</v>
       </c>
       <c r="G7" s="13" t="s">
@@ -1004,11 +1354,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" s="12" customFormat="true" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="19.2">
       <c r="A8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="13">
         <v>2018</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -1017,10 +1367,10 @@
       <c r="D8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="23" t="n">
+      <c r="E8" s="23">
         <v>117880</v>
       </c>
-      <c r="F8" s="15" t="n">
+      <c r="F8" s="15">
         <v>12013477</v>
       </c>
       <c r="G8" s="13" t="s">
@@ -1039,11 +1389,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="true" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="19.2">
       <c r="A9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="13">
         <v>2020</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -1052,10 +1402,10 @@
       <c r="D9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="15">
         <v>115046</v>
       </c>
-      <c r="F9" s="15" t="n">
+      <c r="F9" s="15">
         <v>12321875</v>
       </c>
       <c r="G9" s="13" t="s">
@@ -1064,18 +1414,18 @@
       <c r="H9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="15" t="n">
+      <c r="I9" s="15">
         <v>24097068</v>
       </c>
       <c r="K9" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:11" ht="19.2">
+      <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="27" t="n">
+      <c r="B10" s="27">
         <v>2020</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -1084,10 +1434,10 @@
       <c r="D10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="29" t="n">
+      <c r="E10" s="29">
         <v>403943</v>
       </c>
-      <c r="F10" s="30" t="n">
+      <c r="F10" s="30">
         <v>12321875</v>
       </c>
       <c r="G10" s="27" t="s">
@@ -1096,15 +1446,15 @@
       <c r="H10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="30" t="n">
+      <c r="I10" s="30">
         <v>32203549</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="19.2">
       <c r="A11" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="27" t="n">
+      <c r="B11" s="27">
         <v>2020</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -1113,10 +1463,10 @@
       <c r="D11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="32" t="n">
+      <c r="E11" s="32">
         <v>440546</v>
       </c>
-      <c r="F11" s="30" t="n">
+      <c r="F11" s="30">
         <v>12321875</v>
       </c>
       <c r="G11" s="27" t="s">
@@ -1125,15 +1475,15 @@
       <c r="H11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="30" t="n">
+      <c r="I11" s="30">
         <v>32203549</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:11" ht="19.2">
+      <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="27" t="n">
+      <c r="B12" s="27">
         <v>2020</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -1142,10 +1492,10 @@
       <c r="D12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="32" t="n">
+      <c r="E12" s="32">
         <v>441016</v>
       </c>
-      <c r="F12" s="30" t="n">
+      <c r="F12" s="30">
         <v>12321875</v>
       </c>
       <c r="G12" s="27" t="s">
@@ -1154,15 +1504,15 @@
       <c r="H12" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="30" t="n">
+      <c r="I12" s="30">
         <v>32203549</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:11" ht="19.2">
+      <c r="A13" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="27" t="n">
+      <c r="B13" s="27">
         <v>2019</v>
       </c>
       <c r="C13" s="27" t="s">
@@ -1171,10 +1521,10 @@
       <c r="D13" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="32" t="n">
+      <c r="E13" s="32">
         <v>337334</v>
       </c>
-      <c r="F13" s="30" t="n">
+      <c r="F13" s="30">
         <v>11913712</v>
       </c>
       <c r="G13" s="27" t="s">
@@ -1183,15 +1533,15 @@
       <c r="H13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="30" t="n">
+      <c r="I13" s="30">
         <v>30643251</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:11" ht="19.2">
+      <c r="A14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="27" t="n">
+      <c r="B14" s="27">
         <v>2018</v>
       </c>
       <c r="C14" s="33" t="s">
@@ -1200,10 +1550,10 @@
       <c r="D14" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="34" t="n">
+      <c r="E14" s="34">
         <v>757601</v>
       </c>
-      <c r="F14" s="30" t="n">
+      <c r="F14" s="30">
         <v>7088083</v>
       </c>
       <c r="G14" s="27" t="s">
@@ -1212,18 +1562,18 @@
       <c r="H14" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="30" t="n">
+      <c r="I14" s="30">
         <v>30224653</v>
       </c>
       <c r="J14" s="35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:11" ht="19.2">
+      <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="27" t="n">
+      <c r="B15" s="27">
         <v>2018</v>
       </c>
       <c r="C15" s="33" t="s">
@@ -1232,10 +1582,10 @@
       <c r="D15" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="32" t="n">
+      <c r="E15" s="32">
         <v>757601</v>
       </c>
-      <c r="F15" s="30" t="n">
+      <c r="F15" s="30">
         <v>7160619</v>
       </c>
       <c r="G15" s="27" t="s">
@@ -1244,18 +1594,18 @@
       <c r="H15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="30" t="n">
+      <c r="I15" s="30">
         <v>30224653</v>
       </c>
       <c r="J15" s="35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:11" ht="19.2">
+      <c r="A16" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="27" t="n">
+      <c r="B16" s="27">
         <v>2017</v>
       </c>
       <c r="C16" s="33" t="s">
@@ -1264,10 +1614,10 @@
       <c r="D16" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="34" t="n">
+      <c r="E16" s="34">
         <v>323978</v>
       </c>
-      <c r="F16" s="30" t="n">
+      <c r="F16" s="30">
         <v>10894596</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -1283,11 +1633,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:26" ht="19.2">
+      <c r="A17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="27" t="n">
+      <c r="B17" s="27">
         <v>2018</v>
       </c>
       <c r="C17" s="33" t="s">
@@ -1296,10 +1646,10 @@
       <c r="D17" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="34" t="n">
+      <c r="E17" s="34">
         <v>462933</v>
       </c>
-      <c r="F17" s="30" t="n">
+      <c r="F17" s="30">
         <v>9851867</v>
       </c>
       <c r="G17" s="27" t="s">
@@ -1315,11 +1665,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:26" ht="19.2">
+      <c r="A18" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="27" t="n">
+      <c r="B18" s="27">
         <v>2018</v>
       </c>
       <c r="C18" s="36" t="s">
@@ -1328,10 +1678,10 @@
       <c r="D18" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="32" t="n">
+      <c r="E18" s="32">
         <v>460880</v>
       </c>
-      <c r="F18" s="30" t="n">
+      <c r="F18" s="30">
         <v>9851867</v>
       </c>
       <c r="G18" s="35" t="s">
@@ -1347,11 +1697,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:26" ht="19.2">
+      <c r="A19" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="27" t="n">
+      <c r="B19" s="27">
         <v>2018</v>
       </c>
       <c r="C19" s="33" t="s">
@@ -1360,10 +1710,10 @@
       <c r="D19" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="32" t="n">
+      <c r="E19" s="32">
         <v>453482</v>
       </c>
-      <c r="F19" s="30" t="n">
+      <c r="F19" s="30">
         <v>9851867</v>
       </c>
       <c r="G19" s="27" t="s">
@@ -1379,11 +1729,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:26" ht="19.2">
+      <c r="A20" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="27" t="n">
+      <c r="B20" s="27">
         <v>2018</v>
       </c>
       <c r="C20" s="33" t="s">
@@ -1392,10 +1742,10 @@
       <c r="D20" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="34" t="n">
+      <c r="E20" s="34">
         <v>461460</v>
       </c>
-      <c r="F20" s="30" t="n">
+      <c r="F20" s="30">
         <v>9851867</v>
       </c>
       <c r="G20" s="27" t="s">
@@ -1411,11 +1761,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:26" ht="57.6">
+      <c r="A21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="27" t="n">
+      <c r="B21" s="27">
         <v>2018</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -1424,10 +1774,10 @@
       <c r="D21" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="34" t="n">
+      <c r="E21" s="34">
         <v>460443</v>
       </c>
-      <c r="F21" s="30" t="n">
+      <c r="F21" s="30">
         <v>9851867</v>
       </c>
       <c r="G21" s="38" t="s">
@@ -1443,11 +1793,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:26" ht="57.6">
+      <c r="A22" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="27" t="n">
+      <c r="B22" s="27">
         <v>2018</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -1456,10 +1806,10 @@
       <c r="D22" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="34" t="n">
+      <c r="E22" s="34">
         <v>462341</v>
       </c>
-      <c r="F22" s="30" t="n">
+      <c r="F22" s="30">
         <v>9851867</v>
       </c>
       <c r="G22" s="38" t="s">
@@ -1475,11 +1825,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:26" ht="57.6">
+      <c r="A23" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="27" t="n">
+      <c r="B23" s="27">
         <v>2018</v>
       </c>
       <c r="C23" s="28" t="s">
@@ -1488,10 +1838,10 @@
       <c r="D23" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="32" t="n">
+      <c r="E23" s="32">
         <v>460099</v>
       </c>
-      <c r="F23" s="30" t="n">
+      <c r="F23" s="30">
         <v>9851867</v>
       </c>
       <c r="G23" s="38" t="s">
@@ -1507,11 +1857,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:26" ht="57.6">
+      <c r="A24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="27" t="n">
+      <c r="B24" s="27">
         <v>2018</v>
       </c>
       <c r="C24" s="28" t="s">
@@ -1520,10 +1870,10 @@
       <c r="D24" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="34" t="n">
+      <c r="E24" s="34">
         <v>307897</v>
       </c>
-      <c r="F24" s="30" t="n">
+      <c r="F24" s="30">
         <v>9851867</v>
       </c>
       <c r="G24" s="38" t="s">
@@ -1539,11 +1889,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:26" ht="57.6">
+      <c r="A25" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="27" t="n">
+      <c r="B25" s="27">
         <v>2018</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -1552,10 +1902,10 @@
       <c r="D25" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="34" t="n">
+      <c r="E25" s="34">
         <v>461981</v>
       </c>
-      <c r="F25" s="30" t="n">
+      <c r="F25" s="30">
         <v>9851867</v>
       </c>
       <c r="G25" s="38" t="s">
@@ -1571,11 +1921,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:26" ht="19.2">
+      <c r="A26" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="27" t="n">
+      <c r="B26" s="27">
         <v>2018</v>
       </c>
       <c r="C26" s="33" t="s">
@@ -1584,10 +1934,10 @@
       <c r="D26" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="34" t="n">
+      <c r="E26" s="34">
         <v>460376</v>
       </c>
-      <c r="F26" s="30" t="n">
+      <c r="F26" s="30">
         <v>9851867</v>
       </c>
       <c r="G26" s="27" t="s">
@@ -1603,11 +1953,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:26" ht="57.6">
+      <c r="A27" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="27" t="n">
+      <c r="B27" s="27">
         <v>2018</v>
       </c>
       <c r="C27" s="28" t="s">
@@ -1616,10 +1966,10 @@
       <c r="D27" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="32" t="n">
+      <c r="E27" s="32">
         <v>64941</v>
       </c>
-      <c r="F27" s="30" t="n">
+      <c r="F27" s="30">
         <v>9851867</v>
       </c>
       <c r="G27" s="38" t="s">
@@ -1635,11 +1985,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:26" ht="19.2">
+      <c r="A28" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="27" t="n">
+      <c r="B28" s="27">
         <v>2018</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -1648,10 +1998,10 @@
       <c r="D28" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="34" t="n">
+      <c r="E28" s="34">
         <v>455364</v>
       </c>
-      <c r="F28" s="30" t="n">
+      <c r="F28" s="30">
         <v>9851867</v>
       </c>
       <c r="G28" s="27" t="s">
@@ -1667,11 +2017,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:26" ht="19.2">
       <c r="A29" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>2018</v>
       </c>
       <c r="C29" s="39" t="s">
@@ -1680,10 +2030,10 @@
       <c r="D29" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="39" t="n">
+      <c r="E29" s="39">
         <v>399793</v>
       </c>
-      <c r="F29" s="30" t="n">
+      <c r="F29" s="30">
         <v>9851867</v>
       </c>
       <c r="G29" s="27" t="s">
@@ -1696,11 +2046,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:26" ht="19.8" thickBot="1">
       <c r="A30" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>2018</v>
       </c>
       <c r="C30" s="39" t="s">
@@ -1709,10 +2059,10 @@
       <c r="D30" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="39" t="n">
+      <c r="E30" s="39">
         <v>423738</v>
       </c>
-      <c r="F30" s="30" t="n">
+      <c r="F30" s="30">
         <v>9851867</v>
       </c>
       <c r="G30" s="27" t="s">
@@ -1725,16 +2075,271 @@
         <v>18</v>
       </c>
     </row>
+    <row r="31" spans="1:26" ht="17.399999999999999" thickBot="1">
+      <c r="A31" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="44">
+        <v>451619</v>
+      </c>
+      <c r="F31" s="45">
+        <v>9851867</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+    </row>
+    <row r="32" spans="1:26" ht="28.8" thickBot="1">
+      <c r="A32" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="44">
+        <v>462933</v>
+      </c>
+      <c r="F32" s="45">
+        <v>9851867</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="17.399999999999999" thickBot="1">
+      <c r="A33" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="44">
+        <v>462933</v>
+      </c>
+      <c r="F33" s="45">
+        <v>9851867</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
+    </row>
+    <row r="34" spans="1:26" ht="17.399999999999999" thickBot="1">
+      <c r="A34" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="44">
+        <v>462933</v>
+      </c>
+      <c r="F34" s="45">
+        <v>9851867</v>
+      </c>
+      <c r="G34" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
+    </row>
+    <row r="35" spans="1:26" ht="46.2" thickBot="1">
+      <c r="A35" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="49">
+        <v>462346</v>
+      </c>
+      <c r="F35" s="45">
+        <v>9851867</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+    </row>
+    <row r="36" spans="1:26" ht="17.399999999999999" thickBot="1">
+      <c r="A36" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="44">
+        <v>463010</v>
+      </c>
+      <c r="F36" s="45">
+        <v>9851867</v>
+      </c>
+      <c r="G36" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K9" r:id="rId1" display="Download needed: https://gwas.mrcieu.ac.uk/datasets/met-d-Total_C/"/>
+    <hyperlink ref="K9" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/genetic data/GWAS_datasets_to_consider.xlsx
+++ b/genetic data/GWAS_datasets_to_consider.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -19,198 +20,198 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="103">
-  <si>
-    <t>GWAS_ID</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Trait</t>
-  </si>
-  <si>
-    <t>Consortium</t>
-  </si>
-  <si>
-    <t>Sample_Size</t>
-  </si>
-  <si>
-    <t>Number_of_SNPs</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>PMID</t>
-  </si>
-  <si>
-    <t>Sub_category</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>bbj-a-46</t>
-  </si>
-  <si>
-    <t>Pulse Pressure</t>
-  </si>
-  <si>
-    <t>Continuous</t>
-  </si>
-  <si>
-    <t>East Asian</t>
-  </si>
-  <si>
-    <t>No European data available</t>
-  </si>
-  <si>
-    <t>bbj-a-78</t>
-  </si>
-  <si>
-    <t>Smoking behaviors : Smoking initiation</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Binary</t>
-  </si>
-  <si>
-    <t>ukb-b-13806</t>
-  </si>
-  <si>
-    <t>Non-cancer illness code, self-reported: type 2 diabetes</t>
-  </si>
-  <si>
-    <t>European</t>
-  </si>
-  <si>
-    <t>Download needed: https://gwas.mrcieu.ac.uk/datasets/ukb-b-13806/</t>
-  </si>
-  <si>
-    <t>ieu-a-1283</t>
-  </si>
-  <si>
-    <t>Alcohol consumption</t>
-  </si>
-  <si>
-    <t>UK Biobank</t>
-  </si>
-  <si>
-    <t>Risk factor</t>
-  </si>
-  <si>
-    <t>ukb-d-20405_0</t>
-  </si>
-  <si>
-    <t>Ever had known person concerned about, or recommend reduction of, alcohol consumption: No</t>
-  </si>
-  <si>
-    <t>Download needed: https://gwas.mrcieu.ac.uk/datasets/ukb-d-20405_0/</t>
-  </si>
-  <si>
-    <t>ukb-d-20405_1</t>
-  </si>
-  <si>
-    <t>Ever had known person concerned about, or recommend reduction of, alcohol consumption: Yes, but not in the last year</t>
-  </si>
-  <si>
-    <t>Download needed: https://gwas.mrcieu.ac.uk/datasets/ukb-d-20405_1/</t>
-  </si>
-  <si>
-    <t>ukb-d-20405_2</t>
-  </si>
-  <si>
-    <t>Ever had known person concerned about, or recommend reduction of, alcohol consumption: Yes, during the last year</t>
-  </si>
-  <si>
-    <t>Download needed: https://gwas.mrcieu.ac.uk/datasets/ukb-d-20405_2/</t>
-  </si>
-  <si>
-    <t>met-d-Total_C</t>
-  </si>
-  <si>
-    <t>Total cholesterol</t>
-  </si>
-  <si>
-    <t>Download needed: https://gwas.mrcieu.ac.uk/datasets/met-d-Total_C/</t>
-  </si>
-  <si>
-    <t>ieu-b-109</t>
-  </si>
-  <si>
-    <t>HDL cholesterol</t>
-  </si>
-  <si>
-    <t>ieu-b-110</t>
-  </si>
-  <si>
-    <t>LDL cholesterol</t>
-  </si>
-  <si>
-    <t>ieu-b-111</t>
-  </si>
-  <si>
-    <t>triglycerides</t>
-  </si>
-  <si>
-    <t>ieu-b-25</t>
-  </si>
-  <si>
-    <t>Cigarettes per Day</t>
-  </si>
-  <si>
-    <t>GWAS and Sequencing Consortium of Alcohol and Nicotine use</t>
-  </si>
-  <si>
-    <t>ieu-b-38</t>
-  </si>
-  <si>
-    <t>systolic blood pressure</t>
-  </si>
-  <si>
-    <t>International Consortium of Blood Pressure</t>
-  </si>
-  <si>
-    <t>Blood pressure</t>
-  </si>
-  <si>
-    <t>ieu-b-39</t>
-  </si>
-  <si>
-    <t>diastolic blood pressure</t>
-  </si>
-  <si>
-    <t>ukb-a-257</t>
-  </si>
-  <si>
-    <t>Hearing difficulty/problems: Yes</t>
-  </si>
-  <si>
-    <t>Neale Lab</t>
-  </si>
-  <si>
-    <t>NA (Possibly binary)</t>
-  </si>
-  <si>
-    <t>ukb-b-12064</t>
-  </si>
-  <si>
-    <t>Non-cancer illness code, self-reported: depression</t>
-  </si>
-  <si>
-    <t>MRC-IEU</t>
-  </si>
-  <si>
-    <t>ukb-b-17627</t>
-  </si>
-  <si>
-    <t>Non-oily fish intake</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="107">
+  <si>
+    <t xml:space="preserve">GWAS_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consortium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample_Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number_of_SNPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub_category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbj-a-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulse Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Asian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No European data available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbj-a-78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoking behaviors : Smoking initiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-13806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-cancer illness code, self-reported: type 2 diabetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download needed: https://gwas.mrcieu.ac.uk/datasets/ukb-b-13806/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ieu-a-1283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcohol consumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK Biobank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-d-20405_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ever had known person concerned about, or recommend reduction of, alcohol consumption: No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download needed: https://gwas.mrcieu.ac.uk/datasets/ukb-d-20405_0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-d-20405_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ever had known person concerned about, or recommend reduction of, alcohol consumption: Yes, but not in the last year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download needed: https://gwas.mrcieu.ac.uk/datasets/ukb-d-20405_1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-d-20405_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ever had known person concerned about, or recommend reduction of, alcohol consumption: Yes, during the last year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download needed: https://gwas.mrcieu.ac.uk/datasets/ukb-d-20405_2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met-d-Total_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cholesterol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download needed: https://gwas.mrcieu.ac.uk/datasets/met-d-Total_C/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ieu-b-109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDL cholesterol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ieu-b-110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDL cholesterol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ieu-b-111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">triglycerides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ieu-b-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cigarettes per Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GWAS and Sequencing Consortium of Alcohol and Nicotine use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ieu-b-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systolic blood pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Consortium of Blood Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ieu-b-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diastolic blood pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-a-257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hearing difficulty/problems: Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neale Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA (Possibly binary)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-12064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-cancer illness code, self-reported: depression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRC-IEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-17627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-oily fish intake</t>
   </si>
   <si>
     <r>
@@ -231,117 +232,124 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>(assumed continuous)</t>
+      <t xml:space="preserve">(assumed continuous)</t>
     </r>
   </si>
   <si>
-    <t>ukb-b-18275</t>
-  </si>
-  <si>
-    <t>Hearing difficulty/problems with background noise</t>
-  </si>
-  <si>
-    <t>ukb-b-19953</t>
-  </si>
-  <si>
-    <t>Body mass index (BMI)</t>
-  </si>
-  <si>
-    <t>ukb-b-2209</t>
-  </si>
-  <si>
-    <t>Oily fish intake</t>
-  </si>
-  <si>
-    <t>ukb-b-3957</t>
-  </si>
-  <si>
-    <t>Sleeplessness / insomnia</t>
-  </si>
-  <si>
-    <t>ukb-b-4424</t>
-  </si>
-  <si>
-    <t>Sleep duration</t>
+    <t xml:space="preserve">ukb-b-18275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hearing difficulty/problems with background noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-19953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body mass index (BMI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-2209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oily fish intake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-3957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleeplessness / insomnia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-4424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleep duration</t>
   </si>
   <si>
     <t xml:space="preserve">NA </t>
   </si>
   <si>
-    <t>ukb-b-6134</t>
-  </si>
-  <si>
-    <t>Age completed full time education</t>
-  </si>
-  <si>
-    <t>ukb-b-6324</t>
-  </si>
-  <si>
-    <t>Processed meat intake</t>
-  </si>
-  <si>
-    <t>ukb-b-7663</t>
-  </si>
-  <si>
-    <t>Types of physical activity in last 4 weeks: Strenuous sports</t>
-  </si>
-  <si>
-    <t>ukb-b-770</t>
-  </si>
-  <si>
-    <t>Other meat intake</t>
-  </si>
-  <si>
-    <t>ukb-b-8476</t>
-  </si>
-  <si>
-    <t>Loneliness, isolation</t>
-  </si>
-  <si>
-    <t>ukb-b-323</t>
-  </si>
-  <si>
-    <t>Illnesses of father: Alzheimer's disease/dementia</t>
-  </si>
-  <si>
-    <t>ukb-b-14699</t>
-  </si>
-  <si>
-    <t>Illnesses of mother: Alzheimer's disease/dementia</t>
-  </si>
-  <si>
-    <t>ukb-b-14180</t>
-  </si>
-  <si>
-    <t>ukb-b-17243</t>
-  </si>
-  <si>
-    <t>Mood swings</t>
-  </si>
-  <si>
-    <t>Non-cancer illness code, self-reported: anxiety/panic attacks</t>
-  </si>
-  <si>
-    <t>ukb-b-6358</t>
-  </si>
-  <si>
-    <t>Non-cancer illness code, self-reported: stroke</t>
-  </si>
-  <si>
-    <t>ukb-b-17006</t>
-  </si>
-  <si>
-    <t>Non-cancer illness code, self-reported: head injury</t>
-  </si>
-  <si>
-    <t>ukb-b-5779</t>
-  </si>
-  <si>
-    <t>Alcohol intake frequency</t>
+    <t xml:space="preserve">ukb-b-6134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age completed full time education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-6324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processed meat intake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-7663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types of physical activity in last 4 weeks: Strenuous sports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other meat intake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-8476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loneliness, isolation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illnesses of father: Alzheimer's disease/dementia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-14699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illnesses of mother: Alzheimer's disease/dementia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-14180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mood swings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-17243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-cancer illness code, self-reported: anxiety/panic attacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-6358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-cancer illness code, self-reported: stroke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-17006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-cancer illness code, self-reported: head injury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-5779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcohol intake frequency</t>
   </si>
   <si>
     <r>
-      <t>Categorical Ordered</t>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Categorical Ordered</t>
     </r>
     <r>
       <rPr>
@@ -349,22 +357,41 @@
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> (assumed continuous)</t>
     </r>
   </si>
   <si>
-    <t>ukb-b-15541</t>
-  </si>
-  <si>
-    <t>Diagnoses - secondary ICD10: E66.9 Obesity, unspecified</t>
+    <t xml:space="preserve">ukb-b-15541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnoses - secondary ICD10: E66.9 Obesity, unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-19732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-cancer illness code, self-reported: hypothyroidism/myxoedema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-20289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-cancer illness code, self-reported: hyperthyroidism/thyrotoxicosis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -373,7 +400,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -381,7 +423,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -389,7 +431,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="Segoe UI"/>
@@ -432,7 +474,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -456,43 +498,46 @@
       <sz val="11"/>
       <color rgb="FF212529"/>
       <name val="-apple-system"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF212529"/>
       <name val="Quattrocento Sans"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF212529"/>
       <name val="-apple-system"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF212529"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,22 +550,16 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="8">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium">
         <color rgb="FFDEE2E6"/>
       </left>
@@ -535,7 +574,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="medium">
@@ -544,7 +583,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium">
         <color rgb="FFDEE2E6"/>
       </left>
@@ -557,7 +596,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -572,7 +611,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -587,7 +626,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -602,7 +641,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -618,128 +657,257 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+  <cellXfs count="53">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -756,7 +924,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF0070C0"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -798,333 +966,39 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF212529"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E44" activeCellId="0" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="53.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" customWidth="1"/>
-    <col min="11" max="11" width="22.88671875" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="19.2">
+    <row r="1" s="3" customFormat="true" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1159,11 +1033,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="19.2">
+    <row r="2" s="8" customFormat="true" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="7" t="n">
         <v>2019</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -1172,10 +1046,10 @@
       <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="9" t="n">
         <v>136249</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="10" t="n">
         <v>6108953</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -1184,18 +1058,18 @@
       <c r="H2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="10" t="n">
         <v>29403010</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="19.2">
+    <row r="3" s="8" customFormat="true" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="7" t="n">
         <v>2019</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1204,10 +1078,10 @@
       <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="10" t="n">
         <v>165436</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="10" t="n">
         <v>5961480</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -1216,18 +1090,18 @@
       <c r="H3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="10" t="n">
         <v>31089300</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="19.2">
+    <row r="4" s="12" customFormat="true" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="13" t="n">
         <v>2018</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -1236,10 +1110,10 @@
       <c r="D4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="14" t="n">
         <v>462933</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="15" t="n">
         <v>9851867</v>
       </c>
       <c r="G4" s="13" t="s">
@@ -1255,11 +1129,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" ht="19.2">
+    <row r="5" s="8" customFormat="true" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="7" t="n">
         <v>2017</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -1268,10 +1142,10 @@
       <c r="D5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="18" t="n">
         <v>112117</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="10" t="n">
         <v>12935395</v>
       </c>
       <c r="G5" s="19" t="s">
@@ -1280,15 +1154,15 @@
       <c r="H5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="10" t="n">
         <v>28937693</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="19.2">
+    <row r="6" s="12" customFormat="true" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="13" t="n">
         <v>2018</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -1297,10 +1171,10 @@
       <c r="D6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="14" t="n">
         <v>117880</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="22" t="n">
         <v>13571660</v>
       </c>
       <c r="G6" s="13" t="s">
@@ -1319,11 +1193,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="19.2">
+    <row r="7" s="12" customFormat="true" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="13" t="n">
         <v>2018</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -1332,10 +1206,10 @@
       <c r="D7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="23" t="n">
         <v>117880</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="15" t="n">
         <v>12203571</v>
       </c>
       <c r="G7" s="13" t="s">
@@ -1354,11 +1228,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="19.2">
+    <row r="8" s="12" customFormat="true" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="13" t="n">
         <v>2018</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -1367,10 +1241,10 @@
       <c r="D8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="23" t="n">
         <v>117880</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="15" t="n">
         <v>12013477</v>
       </c>
       <c r="G8" s="13" t="s">
@@ -1389,11 +1263,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="19.2">
+    <row r="9" s="12" customFormat="true" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="13" t="n">
         <v>2020</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -1402,10 +1276,10 @@
       <c r="D9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="15" t="n">
         <v>115046</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="15" t="n">
         <v>12321875</v>
       </c>
       <c r="G9" s="13" t="s">
@@ -1414,18 +1288,18 @@
       <c r="H9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="15" t="n">
         <v>24097068</v>
       </c>
       <c r="K9" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.2">
-      <c r="A10" t="s">
+    <row r="10" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="27" t="n">
         <v>2020</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -1434,10 +1308,10 @@
       <c r="D10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="29" t="n">
         <v>403943</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="30" t="n">
         <v>12321875</v>
       </c>
       <c r="G10" s="27" t="s">
@@ -1446,15 +1320,15 @@
       <c r="H10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="30" t="n">
         <v>32203549</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19.2">
+    <row r="11" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="27" t="n">
         <v>2020</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -1463,10 +1337,10 @@
       <c r="D11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="32" t="n">
         <v>440546</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="30" t="n">
         <v>12321875</v>
       </c>
       <c r="G11" s="27" t="s">
@@ -1475,15 +1349,15 @@
       <c r="H11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="30" t="n">
         <v>32203549</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="19.2">
-      <c r="A12" t="s">
+    <row r="12" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="27" t="n">
         <v>2020</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -1492,10 +1366,10 @@
       <c r="D12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="32" t="n">
         <v>441016</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="30" t="n">
         <v>12321875</v>
       </c>
       <c r="G12" s="27" t="s">
@@ -1504,15 +1378,15 @@
       <c r="H12" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="30" t="n">
         <v>32203549</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="19.2">
-      <c r="A13" t="s">
+    <row r="13" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="27" t="n">
         <v>2019</v>
       </c>
       <c r="C13" s="27" t="s">
@@ -1521,10 +1395,10 @@
       <c r="D13" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="32" t="n">
         <v>337334</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="30" t="n">
         <v>11913712</v>
       </c>
       <c r="G13" s="27" t="s">
@@ -1533,15 +1407,15 @@
       <c r="H13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="30" t="n">
         <v>30643251</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="19.2">
-      <c r="A14" t="s">
+    <row r="14" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="27" t="n">
         <v>2018</v>
       </c>
       <c r="C14" s="33" t="s">
@@ -1550,10 +1424,10 @@
       <c r="D14" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="34" t="n">
         <v>757601</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="30" t="n">
         <v>7088083</v>
       </c>
       <c r="G14" s="27" t="s">
@@ -1562,18 +1436,18 @@
       <c r="H14" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="30" t="n">
         <v>30224653</v>
       </c>
       <c r="J14" s="35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="19.2">
-      <c r="A15" t="s">
+    <row r="15" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="27" t="n">
         <v>2018</v>
       </c>
       <c r="C15" s="33" t="s">
@@ -1582,10 +1456,10 @@
       <c r="D15" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="32" t="n">
         <v>757601</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="30" t="n">
         <v>7160619</v>
       </c>
       <c r="G15" s="27" t="s">
@@ -1594,18 +1468,18 @@
       <c r="H15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="30" t="n">
         <v>30224653</v>
       </c>
       <c r="J15" s="35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="19.2">
-      <c r="A16" t="s">
+    <row r="16" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="27" t="n">
         <v>2017</v>
       </c>
       <c r="C16" s="33" t="s">
@@ -1614,10 +1488,10 @@
       <c r="D16" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="34" t="n">
         <v>323978</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="30" t="n">
         <v>10894596</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -1633,11 +1507,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="19.2">
-      <c r="A17" t="s">
+    <row r="17" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="27" t="n">
         <v>2018</v>
       </c>
       <c r="C17" s="33" t="s">
@@ -1646,10 +1520,10 @@
       <c r="D17" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="34" t="n">
         <v>462933</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="30" t="n">
         <v>9851867</v>
       </c>
       <c r="G17" s="27" t="s">
@@ -1665,11 +1539,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="19.2">
-      <c r="A18" t="s">
+    <row r="18" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="27" t="n">
         <v>2018</v>
       </c>
       <c r="C18" s="36" t="s">
@@ -1678,10 +1552,10 @@
       <c r="D18" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="32" t="n">
         <v>460880</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="30" t="n">
         <v>9851867</v>
       </c>
       <c r="G18" s="35" t="s">
@@ -1697,11 +1571,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="19.2">
-      <c r="A19" t="s">
+    <row r="19" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="27" t="n">
         <v>2018</v>
       </c>
       <c r="C19" s="33" t="s">
@@ -1710,10 +1584,10 @@
       <c r="D19" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="32" t="n">
         <v>453482</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="30" t="n">
         <v>9851867</v>
       </c>
       <c r="G19" s="27" t="s">
@@ -1729,11 +1603,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="19.2">
-      <c r="A20" t="s">
+    <row r="20" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="27" t="n">
         <v>2018</v>
       </c>
       <c r="C20" s="33" t="s">
@@ -1742,10 +1616,10 @@
       <c r="D20" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="34" t="n">
         <v>461460</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="30" t="n">
         <v>9851867</v>
       </c>
       <c r="G20" s="27" t="s">
@@ -1761,11 +1635,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="57.6">
-      <c r="A21" t="s">
+    <row r="21" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="27" t="n">
         <v>2018</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -1774,10 +1648,10 @@
       <c r="D21" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="34" t="n">
         <v>460443</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="30" t="n">
         <v>9851867</v>
       </c>
       <c r="G21" s="38" t="s">
@@ -1793,11 +1667,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="57.6">
-      <c r="A22" t="s">
+    <row r="22" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="27" t="n">
         <v>2018</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -1806,10 +1680,10 @@
       <c r="D22" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="34" t="n">
         <v>462341</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="30" t="n">
         <v>9851867</v>
       </c>
       <c r="G22" s="38" t="s">
@@ -1825,11 +1699,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="57.6">
-      <c r="A23" t="s">
+    <row r="23" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="27" t="n">
         <v>2018</v>
       </c>
       <c r="C23" s="28" t="s">
@@ -1838,10 +1712,10 @@
       <c r="D23" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="32" t="n">
         <v>460099</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="30" t="n">
         <v>9851867</v>
       </c>
       <c r="G23" s="38" t="s">
@@ -1857,11 +1731,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="57.6">
-      <c r="A24" t="s">
+    <row r="24" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="27" t="n">
         <v>2018</v>
       </c>
       <c r="C24" s="28" t="s">
@@ -1870,10 +1744,10 @@
       <c r="D24" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="34" t="n">
         <v>307897</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="30" t="n">
         <v>9851867</v>
       </c>
       <c r="G24" s="38" t="s">
@@ -1889,11 +1763,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="57.6">
-      <c r="A25" t="s">
+    <row r="25" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="27" t="n">
         <v>2018</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -1902,10 +1776,10 @@
       <c r="D25" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="34" t="n">
         <v>461981</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="30" t="n">
         <v>9851867</v>
       </c>
       <c r="G25" s="38" t="s">
@@ -1921,11 +1795,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="19.2">
-      <c r="A26" t="s">
+    <row r="26" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="27" t="n">
         <v>2018</v>
       </c>
       <c r="C26" s="33" t="s">
@@ -1934,10 +1808,10 @@
       <c r="D26" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="34" t="n">
         <v>460376</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="30" t="n">
         <v>9851867</v>
       </c>
       <c r="G26" s="27" t="s">
@@ -1953,11 +1827,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="57.6">
-      <c r="A27" t="s">
+    <row r="27" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="27" t="n">
         <v>2018</v>
       </c>
       <c r="C27" s="28" t="s">
@@ -1966,10 +1840,10 @@
       <c r="D27" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="32" t="n">
         <v>64941</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="30" t="n">
         <v>9851867</v>
       </c>
       <c r="G27" s="38" t="s">
@@ -1985,11 +1859,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="19.2">
-      <c r="A28" t="s">
+    <row r="28" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="27" t="n">
         <v>2018</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -1998,10 +1872,10 @@
       <c r="D28" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="34" t="n">
         <v>455364</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="30" t="n">
         <v>9851867</v>
       </c>
       <c r="G28" s="27" t="s">
@@ -2017,11 +1891,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="19.2">
+    <row r="29" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C29" s="39" t="s">
@@ -2030,10 +1904,10 @@
       <c r="D29" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="39" t="n">
         <v>399793</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="30" t="n">
         <v>9851867</v>
       </c>
       <c r="G29" s="27" t="s">
@@ -2046,11 +1920,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="19.8" thickBot="1">
+    <row r="30" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C30" s="39" t="s">
@@ -2059,10 +1933,10 @@
       <c r="D30" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="39" t="n">
         <v>423738</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="30" t="n">
         <v>9851867</v>
       </c>
       <c r="G30" s="27" t="s">
@@ -2075,23 +1949,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="17.399999999999999" thickBot="1">
-      <c r="A31" s="41" t="s">
+    <row r="31" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="42">
-        <v>2018</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>92</v>
+      <c r="B31" s="41" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="D31" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="44" t="n">
         <v>451619</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="45" t="n">
         <v>9851867</v>
       </c>
       <c r="G31" s="46" t="s">
@@ -2100,44 +1974,44 @@
       <c r="H31" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-    </row>
-    <row r="32" spans="1:26" ht="28.8" thickBot="1">
-      <c r="A32" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="42">
-        <v>2018</v>
-      </c>
-      <c r="C32" s="40" t="s">
+      <c r="I31" s="40"/>
+      <c r="J31" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+    </row>
+    <row r="32" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="41" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C32" s="42" t="s">
         <v>93</v>
       </c>
       <c r="D32" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="44" t="n">
         <v>462933</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="45" t="n">
         <v>9851867</v>
       </c>
       <c r="G32" s="46" t="s">
@@ -2146,28 +2020,28 @@
       <c r="H32" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" ht="17.399999999999999" thickBot="1">
-      <c r="A33" s="41" t="s">
+      <c r="I32" s="40"/>
+      <c r="J32" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="42">
-        <v>2018</v>
-      </c>
-      <c r="C33" s="40" t="s">
+      <c r="B33" s="41" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C33" s="42" t="s">
         <v>95</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="44" t="n">
         <v>462933</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="45" t="n">
         <v>9851867</v>
       </c>
       <c r="G33" s="46" t="s">
@@ -2176,44 +2050,44 @@
       <c r="H33" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-    </row>
-    <row r="34" spans="1:26" ht="17.399999999999999" thickBot="1">
-      <c r="A34" s="41" t="s">
+      <c r="I33" s="40"/>
+      <c r="J33" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+    </row>
+    <row r="34" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="42">
-        <v>2018</v>
-      </c>
-      <c r="C34" s="40" t="s">
+      <c r="B34" s="41" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C34" s="42" t="s">
         <v>97</v>
       </c>
       <c r="D34" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="44" t="n">
         <v>462933</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="45" t="n">
         <v>9851867</v>
       </c>
       <c r="G34" s="46" t="s">
@@ -2222,32 +2096,32 @@
       <c r="H34" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-    </row>
-    <row r="35" spans="1:26" ht="46.2" thickBot="1">
-      <c r="A35" s="41" t="s">
+      <c r="I34" s="40"/>
+      <c r="J34" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+    </row>
+    <row r="35" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="42">
+      <c r="B35" s="41" t="n">
         <v>2018</v>
       </c>
       <c r="C35" s="48" t="s">
@@ -2256,10 +2130,10 @@
       <c r="D35" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="49" t="n">
         <v>462346</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="45" t="n">
         <v>9851867</v>
       </c>
       <c r="G35" s="50" t="s">
@@ -2268,44 +2142,44 @@
       <c r="H35" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-    </row>
-    <row r="36" spans="1:26" ht="17.399999999999999" thickBot="1">
-      <c r="A36" s="41" t="s">
+      <c r="I35" s="40"/>
+      <c r="J35" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+    </row>
+    <row r="36" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="42">
-        <v>2018</v>
-      </c>
-      <c r="C36" s="40" t="s">
+      <c r="B36" s="41" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C36" s="42" t="s">
         <v>102</v>
       </c>
       <c r="D36" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="44">
+      <c r="E36" s="44" t="n">
         <v>463010</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="45" t="n">
         <v>9851867</v>
       </c>
       <c r="G36" s="46" t="s">
@@ -2314,32 +2188,90 @@
       <c r="H36" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-    </row>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
+    </row>
+    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="41" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="45" t="n">
+        <v>9851867</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="41" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="45" t="n">
+        <v>9851867</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K9" r:id="rId1"/>
+    <hyperlink ref="K9" r:id="rId1" display="Download needed: https://gwas.mrcieu.ac.uk/datasets/met-d-Total_C/"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/genetic data/GWAS_datasets_to_consider.xlsx
+++ b/genetic data/GWAS_datasets_to_consider.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="97">
   <si>
     <t xml:space="preserve">GWAS_ID</t>
   </si>
@@ -64,9 +64,6 @@
     <t xml:space="preserve">or</t>
   </si>
   <si>
-    <t xml:space="preserve">Binary</t>
-  </si>
-  <si>
     <t xml:space="preserve">European</t>
   </si>
   <si>
@@ -109,7 +106,7 @@
     <t xml:space="preserve">Total cholesterol</t>
   </si>
   <si>
-    <t xml:space="preserve">Continuous</t>
+    <t xml:space="preserve">beta</t>
   </si>
   <si>
     <t xml:space="preserve">Download needed: https://gwas.mrcieu.ac.uk/datasets/met-d-Total_C/</t>
@@ -172,9 +169,6 @@
     <t xml:space="preserve">Neale Lab</t>
   </si>
   <si>
-    <t xml:space="preserve">NA (Possibly binary)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ukb-b-12064</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
     <t xml:space="preserve">Non-oily fish intake</t>
   </si>
   <si>
-    <t xml:space="preserve">Categorical Ordered (assumed continuous)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ukb-b-18275</t>
   </si>
   <si>
@@ -316,34 +307,10 @@
     <t xml:space="preserve">Non-cancer illness code, self-reported: hyperthyroidism/thyrotoxicosis</t>
   </si>
   <si>
-    <t xml:space="preserve">bbj-a-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulse Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Asian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No European data available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bbj-a-78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smoking behaviors : Smoking initiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ieu-a-1283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcohol consumption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risk factor</t>
+    <t xml:space="preserve">ukb-b-14057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-cancer illness code, self-reported: hypertension</t>
   </si>
 </sst>
 </file>
@@ -356,7 +323,7 @@
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -469,20 +436,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -502,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -594,19 +547,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FFDEE2E6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDEE2E6"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDEE2E6"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -636,7 +576,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -805,44 +745,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -925,10 +829,10 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1000,30 +904,30 @@
         <v>9851867</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>117880</v>
@@ -1032,33 +936,33 @@
         <v>13571660</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="14" t="n">
         <v>117880</v>
@@ -1067,33 +971,33 @@
         <v>12203571</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="7" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="14" t="n">
         <v>117880</v>
@@ -1102,33 +1006,33 @@
         <v>12013477</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>2020</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>115046</v>
@@ -1137,30 +1041,30 @@
         <v>12321875</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="9" t="n">
         <v>24097068</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="18" t="n">
         <v>2020</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="E7" s="20" t="n">
         <v>403943</v>
@@ -1169,10 +1073,10 @@
         <v>12321875</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="21" t="n">
         <v>32203549</v>
@@ -1180,16 +1084,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="18" t="n">
         <v>2020</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="23" t="n">
         <v>440546</v>
@@ -1198,10 +1102,10 @@
         <v>12321875</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="21" t="n">
         <v>32203549</v>
@@ -1209,16 +1113,16 @@
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="18" t="n">
         <v>2020</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="23" t="n">
         <v>441016</v>
@@ -1227,10 +1131,10 @@
         <v>12321875</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="21" t="n">
         <v>32203549</v>
@@ -1238,16 +1142,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="18" t="n">
         <v>2019</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="E10" s="23" t="n">
         <v>337334</v>
@@ -1256,10 +1160,10 @@
         <v>11913712</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="21" t="n">
         <v>30643251</v>
@@ -1267,16 +1171,16 @@
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="18" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="18" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="D11" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>43</v>
       </c>
       <c r="E11" s="25" t="n">
         <v>757601</v>
@@ -1285,30 +1189,30 @@
         <v>7088083</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="21" t="n">
         <v>30224653</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="18" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="18" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>46</v>
-      </c>
       <c r="D12" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="23" t="n">
         <v>757601</v>
@@ -1317,30 +1221,30 @@
         <v>7160619</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="21" t="n">
         <v>30224653</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="18" t="n">
         <v>2017</v>
       </c>
       <c r="C13" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="E13" s="25" t="n">
         <v>323978</v>
@@ -1349,30 +1253,30 @@
         <v>10894596</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" s="18" t="n">
         <v>2018</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" s="25" t="n">
         <v>462933</v>
@@ -1381,30 +1285,30 @@
         <v>9851867</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="18" t="n">
         <v>2018</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="23" t="n">
         <v>460880</v>
@@ -1413,30 +1317,30 @@
         <v>9851867</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" s="18" t="n">
         <v>2018</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" s="23" t="n">
         <v>453482</v>
@@ -1445,30 +1349,30 @@
         <v>9851867</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B17" s="18" t="n">
         <v>2018</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="25" t="n">
         <v>461460</v>
@@ -1477,30 +1381,30 @@
         <v>9851867</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" s="18" t="n">
         <v>2018</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" s="25" t="n">
         <v>460443</v>
@@ -1509,30 +1413,30 @@
         <v>9851867</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B19" s="18" t="n">
         <v>2018</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E19" s="25" t="n">
         <v>462341</v>
@@ -1541,30 +1445,30 @@
         <v>9851867</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B20" s="18" t="n">
         <v>2018</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" s="23" t="n">
         <v>460099</v>
@@ -1573,30 +1477,30 @@
         <v>9851867</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B21" s="18" t="n">
         <v>2018</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" s="25" t="n">
         <v>307897</v>
@@ -1605,30 +1509,30 @@
         <v>9851867</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" s="18" t="n">
         <v>2018</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" s="25" t="n">
         <v>461981</v>
@@ -1637,30 +1541,30 @@
         <v>9851867</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" s="18" t="n">
         <v>2018</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E23" s="25" t="n">
         <v>460376</v>
@@ -1669,30 +1573,30 @@
         <v>9851867</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B24" s="18" t="n">
         <v>2018</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="23" t="n">
         <v>64941</v>
@@ -1701,30 +1605,30 @@
         <v>9851867</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B25" s="18" t="n">
         <v>2018</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E25" s="25" t="n">
         <v>455364</v>
@@ -1733,30 +1637,30 @@
         <v>9851867</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E26" s="10" t="n">
         <v>399793</v>
@@ -1765,27 +1669,27 @@
         <v>9851867</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E27" s="10" t="n">
         <v>423738</v>
@@ -1794,27 +1698,27 @@
         <v>9851867</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B28" s="31" t="n">
         <v>2018</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E28" s="34" t="n">
         <v>451619</v>
@@ -1823,14 +1727,14 @@
         <v>9851867</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
@@ -1851,16 +1755,16 @@
     </row>
     <row r="29" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B29" s="31" t="n">
         <v>2018</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="34" t="n">
         <v>462933</v>
@@ -1869,28 +1773,28 @@
         <v>9851867</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B30" s="31" t="n">
         <v>2018</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E30" s="34" t="n">
         <v>462933</v>
@@ -1899,14 +1803,14 @@
         <v>9851867</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" s="30"/>
       <c r="J30" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
@@ -1927,16 +1831,16 @@
     </row>
     <row r="31" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B31" s="31" t="n">
         <v>2018</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31" s="34" t="n">
         <v>462933</v>
@@ -1945,14 +1849,14 @@
         <v>9851867</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31" s="30"/>
       <c r="J31" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K31" s="30"/>
       <c r="L31" s="30"/>
@@ -1973,16 +1877,16 @@
     </row>
     <row r="32" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B32" s="31" t="n">
         <v>2018</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32" s="39" t="n">
         <v>462346</v>
@@ -1991,14 +1895,14 @@
         <v>9851867</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" s="30"/>
       <c r="J32" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
@@ -2019,16 +1923,16 @@
     </row>
     <row r="33" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B33" s="31" t="n">
         <v>2018</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33" s="34" t="n">
         <v>463010</v>
@@ -2037,14 +1941,14 @@
         <v>9851867</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
@@ -2065,148 +1969,115 @@
     </row>
     <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B34" s="31" t="n">
         <v>2018</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F34" s="35" t="n">
         <v>9851867</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J34" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="31" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="35" t="n">
+        <v>9851867</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" s="42" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="31" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="31" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="35" t="n">
-        <v>9851867</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="43" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="45" t="n">
-        <v>136249</v>
-      </c>
-      <c r="F36" s="46" t="n">
-        <v>6108953</v>
-      </c>
-      <c r="G36" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="I36" s="46" t="n">
-        <v>29403010</v>
-      </c>
-      <c r="K36" s="44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="43" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="46" t="n">
-        <v>165436</v>
-      </c>
-      <c r="F37" s="46" t="n">
-        <v>5961480</v>
-      </c>
-      <c r="G37" s="43" t="s">
+      <c r="D36" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="35" t="n">
+        <v>9851867</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="I37" s="46" t="n">
-        <v>31089300</v>
-      </c>
-      <c r="K37" s="44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" s="44" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="43" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="50" t="n">
-        <v>112117</v>
-      </c>
-      <c r="F38" s="46" t="n">
-        <v>12935395</v>
-      </c>
-      <c r="G38" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="46" t="n">
-        <v>28937693</v>
-      </c>
+      <c r="H36" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="0"/>
+    </row>
+    <row r="37" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+    </row>
+    <row r="38" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="I39" s="0"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/genetic data/GWAS_datasets_to_consider.xlsx
+++ b/genetic data/GWAS_datasets_to_consider.xlsx
@@ -829,10 +829,10 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="36:36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/genetic data/GWAS_datasets_to_consider.xlsx
+++ b/genetic data/GWAS_datasets_to_consider.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="105">
   <si>
     <t xml:space="preserve">GWAS_ID</t>
   </si>
@@ -311,6 +311,30 @@
   </si>
   <si>
     <t xml:space="preserve">Non-cancer illness code, self-reported: hypertension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-12963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particulate matter air pollution 2.5-10um; 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-12417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen oxides air pollution; 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-11495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types of physical activity in last 4 weeks: Light DIY (eg: pruning, watering the lawn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-12493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnoses - secondary ICD10: I10 Essential (primary) hypertension</t>
   </si>
 </sst>
 </file>
@@ -830,9 +854,9 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="36:36"/>
+      <selection pane="bottomLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2048,36 +2072,189 @@
       </c>
       <c r="K36" s="0"/>
     </row>
-    <row r="37" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
-      <c r="J37" s="0"/>
-      <c r="K37" s="0"/>
-    </row>
-    <row r="38" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0"/>
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
-      <c r="K38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
-      <c r="I39" s="0"/>
+    <row r="37" s="42" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="10" t="n">
+        <v>423796</v>
+      </c>
+      <c r="F37" s="10" t="n">
+        <v>9851867</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="41"/>
+      <c r="J37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="41"/>
+    </row>
+    <row r="38" s="42" customFormat="true" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="10" t="n">
+        <v>456380</v>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>9851867</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="41"/>
+      <c r="J38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="41"/>
+    </row>
+    <row r="39" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="10" t="n">
+        <v>460376</v>
+      </c>
+      <c r="F39" s="10" t="n">
+        <v>9851867</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="41"/>
+      <c r="J39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="10" t="n">
+        <v>463010</v>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>9851867</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="41"/>
+      <c r="J40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/genetic data/GWAS_datasets_to_consider.xlsx
+++ b/genetic data/GWAS_datasets_to_consider.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="115">
   <si>
     <t xml:space="preserve">GWAS_ID</t>
   </si>
@@ -335,6 +335,36 @@
   </si>
   <si>
     <t xml:space="preserve">Diagnoses - secondary ICD10: I10 Essential (primary) hypertension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-4282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prospective memory result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-4171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leisure/social activities: Pub or social club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leisure/social activities: Sports club or gym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-d-20544_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental health problems ever diagnosed by a professional: Social anxiety or social phobia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-d-20544_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental health problems ever diagnosed by a professional: Anxiety, nerves or generalized anxiety disorder</t>
   </si>
 </sst>
 </file>
@@ -600,7 +630,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -773,15 +803,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -847,21 +881,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+      <selection pane="bottomLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18"/>
@@ -871,6 +906,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.45"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2256,6 +2292,157 @@
       <c r="Y40" s="41"/>
       <c r="Z40" s="41"/>
     </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="10" t="n">
+        <v>152605</v>
+      </c>
+      <c r="F41" s="10" t="n">
+        <v>9851867</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" s="41" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="10" t="n">
+        <v>461369</v>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>9851867</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="43"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="10" t="n">
+        <v>461369</v>
+      </c>
+      <c r="F43" s="10" t="n">
+        <v>9851867</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" s="41" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="10" t="n">
+        <v>117716</v>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>9938651</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="43"/>
+    </row>
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="10" t="n">
+        <v>117751</v>
+      </c>
+      <c r="F45" s="10" t="n">
+        <v>13571547</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/genetic data/GWAS_datasets_to_consider.xlsx
+++ b/genetic data/GWAS_datasets_to_consider.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="134">
   <si>
     <t xml:space="preserve">GWAS_ID</t>
   </si>
@@ -365,6 +365,63 @@
   </si>
   <si>
     <t xml:space="preserve">Mental health problems ever diagnosed by a professional: Anxiety, nerves or generalized anxiety disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-20556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation code: brain surgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-d-20441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ever had prolonged loss of interest in normal activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-18162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illness, injury, bereavement, stress in last 2 years: Serious illness, injury or assault to yourself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gwas.mrcieu.ac.uk/datasets/ukb-b-18162/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-14624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illness, injury, bereavement, stress in last 2 years: Marital separation/divorce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gwas.mrcieu.ac.uk/datasets/ukb-b-14624/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-b-9667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illness, injury, bereavement, stress in last 2 years: Financial difficulties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gwas.mrcieu.ac.uk/datasets/ukb-b-9667/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ieu-a-1183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADHD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukb-d-30500_irnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microalbumin in urine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gwas.mrcieu.ac.uk/datasets/ukb-d-30500_irnt/</t>
   </si>
 </sst>
 </file>
@@ -888,9 +945,9 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
+      <selection pane="bottomLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2442,13 +2499,332 @@
       <c r="Y45" s="41"/>
       <c r="Z45" s="41"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="10" t="n">
+        <v>462933</v>
+      </c>
+      <c r="F46" s="10" t="n">
+        <v>9851867</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="41"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="10" t="n">
+        <v>117727</v>
+      </c>
+      <c r="F47" s="10" t="n">
+        <v>13571568</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+    </row>
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="10" t="n">
+        <v>459742</v>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>9851867</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
+    </row>
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="10" t="n">
+        <v>459742</v>
+      </c>
+      <c r="F49" s="10" t="n">
+        <v>9851867</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="41"/>
+      <c r="W49" s="41"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="41"/>
+      <c r="Z49" s="41"/>
+    </row>
+    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="10" t="n">
+        <v>459742</v>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>9851867</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="41"/>
+      <c r="W50" s="41"/>
+      <c r="X50" s="41"/>
+      <c r="Y50" s="41"/>
+      <c r="Z50" s="41"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="10" t="n">
+        <v>55374</v>
+      </c>
+      <c r="F51" s="10" t="n">
+        <v>8047420</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="41"/>
+      <c r="W51" s="41"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="41"/>
+      <c r="Z51" s="41"/>
+    </row>
+    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="10" t="n">
+        <v>108706</v>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>13571117</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
+      <c r="V52" s="41"/>
+      <c r="W52" s="41"/>
+      <c r="X52" s="41"/>
+      <c r="Y52" s="41"/>
+      <c r="Z52" s="41"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K6" r:id="rId1" display="Download needed: https://gwas.mrcieu.ac.uk/datasets/met-d-Total_C/"/>
+    <hyperlink ref="I48" r:id="rId2" display="https://gwas.mrcieu.ac.uk/datasets/ukb-b-18162/"/>
+    <hyperlink ref="I49" r:id="rId3" display="https://gwas.mrcieu.ac.uk/datasets/ukb-b-14624/"/>
+    <hyperlink ref="I50" r:id="rId4" display="https://gwas.mrcieu.ac.uk/datasets/ukb-b-9667/"/>
+    <hyperlink ref="I52" r:id="rId5" display="https://gwas.mrcieu.ac.uk/datasets/ukb-d-30500_irnt/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/genetic data/GWAS_datasets_to_consider.xlsx
+++ b/genetic data/GWAS_datasets_to_consider.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="137">
   <si>
     <t xml:space="preserve">GWAS_ID</t>
   </si>
@@ -422,6 +422,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://gwas.mrcieu.ac.uk/datasets/ukb-d-30500_irnt/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ieu-b-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parkinson's disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Parkinson's Disease Genomics Consortium</t>
   </si>
 </sst>
 </file>
@@ -2815,6 +2824,32 @@
       <c r="Y52" s="41"/>
       <c r="Z52" s="41"/>
     </row>
+    <row r="53" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="10" t="n">
+        <v>482730</v>
+      </c>
+      <c r="F53" s="10" t="n">
+        <v>17891936</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/genetic data/GWAS_datasets_to_consider.xlsx
+++ b/genetic data/GWAS_datasets_to_consider.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="139">
   <si>
     <t xml:space="preserve">GWAS_ID</t>
   </si>
@@ -431,6 +431,12 @@
   </si>
   <si>
     <t xml:space="preserve">International Parkinson's Disease Genomics Consortium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ieu-b-5067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alzheimer's disease</t>
   </si>
 </sst>
 </file>
@@ -954,9 +960,9 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2850,6 +2856,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="10" t="n">
+        <v>488285</v>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>12321875</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
